--- a/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2016 (F16).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2016 (F16).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A56"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,385 +444,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Blighted Fen</t>
+          <t>('Blighted Fen', ['Land', '{T}: Add {C}.', '{4}{B}, {T}, Sacrifice Blighted Fen: Target opponent sacrifices a creature.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Land</t>
+          <t>('Call the Bloodline', ['{1}{B}', 'Enchantment', '{1}, Discard a card: Create a 1/1 black Vampire Knight creature token with lifelink. Activate this ability only once each turn.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{T}: Add {C}.</t>
+          <t>('Clash of Wills', ['{X}{U}', 'Instant', 'Counter target spell unless its controller pays {X}.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>{4}{B}, {T}, Sacrifice Blighted Fen: Target opponent sacrifices a creature.</t>
+          <t>('Crumbling Vestige', ['Land', 'Crumbling Vestige enters the battlefield tapped.', 'When Crumbling Vestige enters the battlefield, add one mana of any color.', '{T}: Add {C}. ({C} represents colorless mana.)'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Call the Bloodline</t>
+          <t>('Fiery Temper', ['{1}{R}{R}', 'Instant', 'Fiery Temper deals 3 damage to any target.', 'Madness {R} (If you discard this card, discard it into exile. When you do, cast it for its madness cost or put it into your graveyard.)'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{1}{B}</t>
+          <t>('Flaying Tendrils', ['{1}{B}{B}', 'Sorcery', 'Devoid (This card has no color.)', 'All creatures get -2/-2 until end of turn. If a creature would die this turn, exile it instead.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Enchantment</t>
+          <t>('Goblin Warchief', ['{1}{R}{R}', 'Creature — Goblin Warrior', 'Goblin spells you cast cost {1} less to cast.', 'Goblins you control have haste.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{1}, Discard a card: Create a 1/1 black Vampire Knight creature token with lifelink. Activate this ability only once each turn.</t>
+          <t>("Nissa's Pilgrimage", ['{2}{G}', 'Sorcery', 'Search your library for up to two basic Forest cards, reveal those cards, and put one onto the battlefield tapped and the rest into your hand. Then shuffle your library.', 'Spell mastery — If there are two or more instant and/or sorcery cards in your graveyard, search your library for up to three basic Forest cards instead of two.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Clash of Wills</t>
+          <t>('Rise from the Tides', ['{5}{U}', 'Sorcery', 'Create a tapped 2/2 black Zombie creature token for each instant and sorcery card in your graveyard.'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>{X}{U}</t>
+          <t>('Smash to Smithereens', ['{1}{R}', 'Instant', 'Destroy target artifact. Smash to Smithereens deals 3 damage to that artifact’s controller.'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>('Spatial Contortion', ['{1}{C}', 'Instant', '({C} represents colorless mana.)', 'Target creature gets +3/-3 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Counter target spell unless its controller pays {X}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Crumbling Vestige</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Crumbling Vestige enters the battlefield tapped.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>When Crumbling Vestige enters the battlefield, add one mana of any color.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>{T}: Add {C}. ({C} represents colorless mana.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Fiery Temper</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>{1}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Fiery Temper deals 3 damage to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Madness {R} (If you discard this card, discard it into exile. When you do, cast it for its madness cost or put it into your graveyard.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Flaying Tendrils</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>{1}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Devoid (This card has no color.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>All creatures get -2/-2 until end of turn. If a creature would die this turn, exile it instead.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Goblin Warchief</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>{1}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Creature — Goblin Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Goblin spells you cast cost {1} less to cast.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Goblins you control have haste.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Nissa's Pilgrimage</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>{2}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Search your library for up to two basic Forest cards, reveal those cards, and put one onto the battlefield tapped and the rest into your hand. Then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Spell mastery — If there are two or more instant and/or sorcery cards in your graveyard, search your library for up to three basic Forest cards instead of two.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Rise from the Tides</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>{5}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Create a tapped 2/2 black Zombie creature token for each instant and sorcery card in your graveyard.</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Smash to Smithereens</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Destroy target artifact. Smash to Smithereens deals 3 damage to that artifact’s controller.</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Spatial Contortion</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>{1}{C}</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>({C} represents colorless mana.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Target creature gets +3/-3 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Sylvan Scrying</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>{1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Search your library for a land card, reveal it, and put it into your hand. Then shuffle your library.</t>
+          <t>('Sylvan Scrying', ['{1}{G}', 'Sorcery', 'Search your library for a land card, reveal it, and put it into your hand. Then shuffle your library.'])</t>
         </is>
       </c>
     </row>
